--- a/report_template/minMonthlyReport.xlsx
+++ b/report_template/minMonthlyReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>底色說明</t>
   </si>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>異常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自動檢核</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -79,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,12 +103,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,9 +171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -472,19 +459,19 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -505,9 +492,6 @@
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
